--- a/biology/Zoologie/Alaskozetes_antarcticus/Alaskozetes_antarcticus.xlsx
+++ b/biology/Zoologie/Alaskozetes_antarcticus/Alaskozetes_antarcticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alaskozetes antarcticus est une espèce d'acariens de la famille des Ameronothridae connue pour résister à des températures très basses, en dessous des 0 °C. Le nom de son genre dérive d'« Alaska » et l'épithète spécifique de « Antarctique » pour évoquer son habitat extrême.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un petit arachnide très sombre, avec un développement durant 5 à 7 ans[1]. Il présente un cas d'adaptation surprenant chez les arthropodes, pouvant survivre dans le froid extrême presque sans humidité. Il a six yeux pour absorber la lumière solaire.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit arachnide très sombre, avec un développement durant 5 à 7 ans. Il présente un cas d'adaptation surprenant chez les arthropodes, pouvant survivre dans le froid extrême presque sans humidité. Il a six yeux pour absorber la lumière solaire.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vit sous les rochers de toute la péninsule Antarctique[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vit sous les rochers de toute la péninsule Antarctique.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (20 août 2010)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (20 août 2010) :
 A. a. antarcticus
 A. a. grandjeani
 A. a. intermedius</t>
